--- a/data/542/WSA/WSA.xlsx
+++ b/data/542/WSA/WSA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XZ2"/>
+  <dimension ref="A1:YC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3604,15 +3604,30 @@
       </c>
       <c r="XX1" s="1" t="inlineStr">
         <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="XY1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="XZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="YA1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="XY1" s="1" t="inlineStr">
+      <c r="YB1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="XZ1" s="1" t="inlineStr">
+      <c r="YC1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -5560,19 +5575,28 @@
         <v>5440.81</v>
       </c>
       <c r="XW2" t="n">
-        <v>5800.344</v>
-      </c>
-      <c r="XX2" t="inlineStr">
+        <v>5781.825</v>
+      </c>
+      <c r="XX2" t="n">
+        <v>5931.628</v>
+      </c>
+      <c r="XY2" t="n">
+        <v>5935.253</v>
+      </c>
+      <c r="XZ2" t="n">
+        <v>5980</v>
+      </c>
+      <c r="YA2" t="inlineStr">
         <is>
           <t>IPST0001</t>
         </is>
       </c>
-      <c r="XY2" t="inlineStr">
+      <c r="YB2" t="inlineStr">
         <is>
           <t>Production of Crude Steel</t>
         </is>
       </c>
-      <c r="XZ2" t="inlineStr">
+      <c r="YC2" t="inlineStr">
         <is>
           <t>Thousands of Metric Tons</t>
         </is>
